--- a/test/data/ucb.xlsx
+++ b/test/data/ucb.xlsx
@@ -26698,7 +26698,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -26708,8 +26708,8 @@
     <col min="2" max="4" width="31.5859" style="125" customWidth="1"/>
     <col min="5" max="5" width="43.3516" style="125" customWidth="1"/>
     <col min="6" max="6" width="35" style="125" customWidth="1"/>
-    <col min="7" max="23" width="8.85156" style="125" customWidth="1"/>
-    <col min="24" max="256" width="8.85156" style="125" customWidth="1"/>
+    <col min="7" max="25" width="8.85156" style="125" customWidth="1"/>
+    <col min="26" max="256" width="8.85156" style="125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.65" customHeight="1">
@@ -26741,45 +26741,51 @@
         <v>201</v>
       </c>
       <c r="J1" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="K1" t="s" s="7">
+        <v>203</v>
+      </c>
+      <c r="L1" t="s" s="7">
         <v>204</v>
       </c>
-      <c r="K1" t="s" s="84">
+      <c r="M1" t="s" s="84">
         <v>205</v>
       </c>
-      <c r="L1" t="s" s="84">
+      <c r="N1" t="s" s="84">
         <v>206</v>
       </c>
-      <c r="M1" t="s" s="7">
+      <c r="O1" t="s" s="7">
         <v>207</v>
       </c>
-      <c r="N1" t="s" s="7">
+      <c r="P1" t="s" s="7">
         <v>208</v>
       </c>
-      <c r="O1" t="s" s="7">
+      <c r="Q1" t="s" s="7">
         <v>209</v>
       </c>
-      <c r="P1" t="s" s="7">
+      <c r="R1" t="s" s="7">
         <v>210</v>
       </c>
-      <c r="Q1" t="s" s="7">
+      <c r="S1" t="s" s="7">
         <v>211</v>
       </c>
-      <c r="R1" t="s" s="7">
+      <c r="T1" t="s" s="7">
         <v>212</v>
       </c>
-      <c r="S1" t="s" s="7">
+      <c r="U1" t="s" s="7">
         <v>213</v>
       </c>
-      <c r="T1" t="s" s="7">
+      <c r="V1" t="s" s="7">
         <v>214</v>
       </c>
-      <c r="U1" t="s" s="7">
+      <c r="W1" t="s" s="7">
         <v>215</v>
       </c>
-      <c r="V1" t="s" s="7">
+      <c r="X1" t="s" s="7">
         <v>216</v>
       </c>
-      <c r="W1" t="s" s="7">
+      <c r="Y1" t="s" s="7">
         <v>217</v>
       </c>
     </row>
@@ -26798,10 +26804,10 @@
       <c r="H2" s="128"/>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
       <c r="Q2" s="128"/>
@@ -26809,8 +26815,10 @@
       <c r="S2" s="128"/>
       <c r="T2" s="128"/>
       <c r="U2" s="128"/>
-      <c r="V2" s="130"/>
-      <c r="W2" t="s" s="12">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" t="s" s="12">
         <v>265</v>
       </c>
     </row>
@@ -26840,8 +26848,10 @@
       <c r="S3" s="52"/>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" t="s" s="12">
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -26871,8 +26881,10 @@
       <c r="S4" s="52"/>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" t="s" s="12">
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" t="s" s="12">
         <v>267</v>
       </c>
     </row>
@@ -26902,8 +26914,10 @@
       <c r="S5" s="52"/>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
-      <c r="V5" s="53"/>
-      <c r="W5" t="s" s="12">
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -26933,8 +26947,10 @@
       <c r="S6" s="52"/>
       <c r="T6" s="52"/>
       <c r="U6" s="52"/>
-      <c r="V6" s="53"/>
-      <c r="W6" t="s" s="12">
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" t="s" s="12">
         <v>268</v>
       </c>
     </row>
@@ -26964,8 +26980,10 @@
       <c r="S7" s="52"/>
       <c r="T7" s="52"/>
       <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
-      <c r="W7" t="s" s="12">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" t="s" s="12">
         <v>269</v>
       </c>
     </row>
@@ -26995,8 +27013,10 @@
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
       <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
-      <c r="W8" t="s" s="12">
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27026,8 +27046,10 @@
       <c r="S9" s="52"/>
       <c r="T9" s="52"/>
       <c r="U9" s="52"/>
-      <c r="V9" s="53"/>
-      <c r="W9" t="s" s="12">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" t="s" s="12">
         <v>270</v>
       </c>
     </row>
@@ -27057,8 +27079,10 @@
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
       <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
-      <c r="W10" t="s" s="12">
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27088,8 +27112,10 @@
       <c r="S11" s="52"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" t="s" s="12">
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" t="s" s="12">
         <v>271</v>
       </c>
     </row>
@@ -27119,8 +27145,10 @@
       <c r="S12" s="52"/>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" t="s" s="12">
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27150,8 +27178,10 @@
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
-      <c r="W13" t="s" s="12">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" t="s" s="12">
         <v>272</v>
       </c>
     </row>
@@ -27181,8 +27211,10 @@
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
-      <c r="W14" t="s" s="12">
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" t="s" s="12">
         <v>273</v>
       </c>
     </row>
@@ -27212,8 +27244,10 @@
       <c r="S15" s="52"/>
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
-      <c r="V15" s="53"/>
-      <c r="W15" t="s" s="12">
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27243,8 +27277,10 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
-      <c r="W16" t="s" s="12">
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27274,8 +27310,10 @@
       <c r="S17" s="52"/>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
-      <c r="V17" s="53"/>
-      <c r="W17" t="s" s="12">
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" t="s" s="12">
         <v>274</v>
       </c>
     </row>
@@ -27305,8 +27343,10 @@
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
       <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
-      <c r="W18" t="s" s="12">
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" t="s" s="12">
         <v>275</v>
       </c>
     </row>
@@ -27336,8 +27376,10 @@
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
-      <c r="V19" s="53"/>
-      <c r="W19" t="s" s="12">
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27367,8 +27409,10 @@
       <c r="S20" s="52"/>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
-      <c r="V20" s="53"/>
-      <c r="W20" t="s" s="12">
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" t="s" s="12">
         <v>276</v>
       </c>
     </row>
@@ -27398,8 +27442,10 @@
       <c r="S21" s="52"/>
       <c r="T21" s="52"/>
       <c r="U21" s="52"/>
-      <c r="V21" s="53"/>
-      <c r="W21" t="s" s="12">
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27429,8 +27475,10 @@
       <c r="S22" s="52"/>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
-      <c r="V22" s="53"/>
-      <c r="W22" t="s" s="12">
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" t="s" s="12">
         <v>277</v>
       </c>
     </row>
@@ -27460,8 +27508,10 @@
       <c r="S23" s="52"/>
       <c r="T23" s="52"/>
       <c r="U23" s="52"/>
-      <c r="V23" s="53"/>
-      <c r="W23" t="s" s="12">
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" t="s" s="12">
         <v>278</v>
       </c>
     </row>
@@ -27491,8 +27541,10 @@
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
-      <c r="V24" s="53"/>
-      <c r="W24" t="s" s="12">
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27522,8 +27574,10 @@
       <c r="S25" s="52"/>
       <c r="T25" s="52"/>
       <c r="U25" s="52"/>
-      <c r="V25" s="53"/>
-      <c r="W25" t="s" s="12">
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27553,8 +27607,10 @@
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
-      <c r="V26" s="53"/>
-      <c r="W26" t="s" s="12">
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27584,8 +27640,10 @@
       <c r="S27" s="52"/>
       <c r="T27" s="52"/>
       <c r="U27" s="52"/>
-      <c r="V27" s="53"/>
-      <c r="W27" t="s" s="12">
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" t="s" s="12">
         <v>279</v>
       </c>
     </row>
@@ -27615,8 +27673,10 @@
       <c r="S28" s="52"/>
       <c r="T28" s="52"/>
       <c r="U28" s="52"/>
-      <c r="V28" s="53"/>
-      <c r="W28" t="s" s="12">
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27646,8 +27706,10 @@
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
       <c r="U29" s="52"/>
-      <c r="V29" s="53"/>
-      <c r="W29" t="s" s="12">
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" t="s" s="12">
         <v>280</v>
       </c>
     </row>
@@ -27677,8 +27739,10 @@
       <c r="S30" s="52"/>
       <c r="T30" s="52"/>
       <c r="U30" s="52"/>
-      <c r="V30" s="53"/>
-      <c r="W30" t="s" s="12">
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27708,8 +27772,10 @@
       <c r="S31" s="52"/>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
-      <c r="V31" s="53"/>
-      <c r="W31" t="s" s="12">
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" t="s" s="12">
         <v>281</v>
       </c>
     </row>
@@ -27739,8 +27805,10 @@
       <c r="S32" s="52"/>
       <c r="T32" s="52"/>
       <c r="U32" s="52"/>
-      <c r="V32" s="53"/>
-      <c r="W32" t="s" s="12">
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27770,8 +27838,10 @@
       <c r="S33" s="52"/>
       <c r="T33" s="52"/>
       <c r="U33" s="52"/>
-      <c r="V33" s="53"/>
-      <c r="W33" t="s" s="12">
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" t="s" s="12">
         <v>282</v>
       </c>
     </row>
@@ -27801,8 +27871,10 @@
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
-      <c r="V34" s="53"/>
-      <c r="W34" t="s" s="12">
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27832,8 +27904,10 @@
       <c r="S35" s="52"/>
       <c r="T35" s="52"/>
       <c r="U35" s="52"/>
-      <c r="V35" s="53"/>
-      <c r="W35" t="s" s="12">
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" t="s" s="12">
         <v>283</v>
       </c>
     </row>
@@ -27863,8 +27937,10 @@
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="52"/>
-      <c r="V36" s="53"/>
-      <c r="W36" t="s" s="12">
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" t="s" s="12">
         <v>284</v>
       </c>
     </row>
@@ -27894,8 +27970,10 @@
       <c r="S37" s="52"/>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
-      <c r="V37" s="53"/>
-      <c r="W37" t="s" s="12">
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" t="s" s="12">
         <v>285</v>
       </c>
     </row>
@@ -27925,8 +28003,10 @@
       <c r="S38" s="52"/>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
-      <c r="V38" s="53"/>
-      <c r="W38" t="s" s="12">
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27956,8 +28036,10 @@
       <c r="S39" s="52"/>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
-      <c r="V39" s="53"/>
-      <c r="W39" t="s" s="12">
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -27987,8 +28069,10 @@
       <c r="S40" s="52"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
-      <c r="V40" s="53"/>
-      <c r="W40" t="s" s="12">
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28018,8 +28102,10 @@
       <c r="S41" s="52"/>
       <c r="T41" s="52"/>
       <c r="U41" s="52"/>
-      <c r="V41" s="53"/>
-      <c r="W41" t="s" s="12">
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28049,8 +28135,10 @@
       <c r="S42" s="52"/>
       <c r="T42" s="52"/>
       <c r="U42" s="52"/>
-      <c r="V42" s="53"/>
-      <c r="W42" t="s" s="12">
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28080,8 +28168,10 @@
       <c r="S43" s="52"/>
       <c r="T43" s="52"/>
       <c r="U43" s="52"/>
-      <c r="V43" s="53"/>
-      <c r="W43" t="s" s="12">
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28111,8 +28201,10 @@
       <c r="S44" s="52"/>
       <c r="T44" s="52"/>
       <c r="U44" s="52"/>
-      <c r="V44" s="53"/>
-      <c r="W44" t="s" s="12">
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" t="s" s="12">
         <v>286</v>
       </c>
     </row>
@@ -28142,8 +28234,10 @@
       <c r="S45" s="52"/>
       <c r="T45" s="52"/>
       <c r="U45" s="52"/>
-      <c r="V45" s="53"/>
-      <c r="W45" t="s" s="12">
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28173,8 +28267,10 @@
       <c r="S46" s="52"/>
       <c r="T46" s="52"/>
       <c r="U46" s="52"/>
-      <c r="V46" s="53"/>
-      <c r="W46" t="s" s="12">
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28204,8 +28300,10 @@
       <c r="S47" s="52"/>
       <c r="T47" s="52"/>
       <c r="U47" s="52"/>
-      <c r="V47" s="53"/>
-      <c r="W47" t="s" s="12">
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" t="s" s="12">
         <v>287</v>
       </c>
     </row>
@@ -28235,8 +28333,10 @@
       <c r="S48" s="52"/>
       <c r="T48" s="52"/>
       <c r="U48" s="52"/>
-      <c r="V48" s="53"/>
-      <c r="W48" t="s" s="12">
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" t="s" s="12">
         <v>288</v>
       </c>
     </row>
@@ -28266,8 +28366,10 @@
       <c r="S49" s="52"/>
       <c r="T49" s="52"/>
       <c r="U49" s="52"/>
-      <c r="V49" s="53"/>
-      <c r="W49" t="s" s="12">
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" t="s" s="12">
         <v>289</v>
       </c>
     </row>
@@ -28297,8 +28399,10 @@
       <c r="S50" s="52"/>
       <c r="T50" s="52"/>
       <c r="U50" s="52"/>
-      <c r="V50" s="53"/>
-      <c r="W50" t="s" s="12">
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28328,8 +28432,10 @@
       <c r="S51" s="52"/>
       <c r="T51" s="52"/>
       <c r="U51" s="52"/>
-      <c r="V51" s="53"/>
-      <c r="W51" t="s" s="12">
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28359,8 +28465,10 @@
       <c r="S52" s="52"/>
       <c r="T52" s="52"/>
       <c r="U52" s="52"/>
-      <c r="V52" s="53"/>
-      <c r="W52" t="s" s="12">
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28390,8 +28498,10 @@
       <c r="S53" s="52"/>
       <c r="T53" s="52"/>
       <c r="U53" s="52"/>
-      <c r="V53" s="53"/>
-      <c r="W53" t="s" s="12">
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" t="s" s="12">
         <v>290</v>
       </c>
     </row>
@@ -28421,8 +28531,10 @@
       <c r="S54" s="52"/>
       <c r="T54" s="52"/>
       <c r="U54" s="52"/>
-      <c r="V54" s="53"/>
-      <c r="W54" t="s" s="12">
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" t="s" s="12">
         <v>291</v>
       </c>
     </row>
@@ -28452,8 +28564,10 @@
       <c r="S55" s="52"/>
       <c r="T55" s="52"/>
       <c r="U55" s="52"/>
-      <c r="V55" s="53"/>
-      <c r="W55" t="s" s="12">
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28483,8 +28597,10 @@
       <c r="S56" s="52"/>
       <c r="T56" s="52"/>
       <c r="U56" s="52"/>
-      <c r="V56" s="53"/>
-      <c r="W56" t="s" s="12">
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" t="s" s="12">
         <v>292</v>
       </c>
     </row>
@@ -28514,8 +28630,10 @@
       <c r="S57" s="52"/>
       <c r="T57" s="52"/>
       <c r="U57" s="52"/>
-      <c r="V57" s="53"/>
-      <c r="W57" t="s" s="12">
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" t="s" s="12">
         <v>293</v>
       </c>
     </row>
@@ -28545,8 +28663,10 @@
       <c r="S58" s="52"/>
       <c r="T58" s="52"/>
       <c r="U58" s="52"/>
-      <c r="V58" s="53"/>
-      <c r="W58" t="s" s="12">
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28576,8 +28696,10 @@
       <c r="S59" s="52"/>
       <c r="T59" s="52"/>
       <c r="U59" s="52"/>
-      <c r="V59" s="53"/>
-      <c r="W59" t="s" s="12">
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28607,8 +28729,10 @@
       <c r="S60" s="52"/>
       <c r="T60" s="52"/>
       <c r="U60" s="52"/>
-      <c r="V60" s="53"/>
-      <c r="W60" t="s" s="12">
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28638,8 +28762,10 @@
       <c r="S61" s="52"/>
       <c r="T61" s="52"/>
       <c r="U61" s="52"/>
-      <c r="V61" s="53"/>
-      <c r="W61" t="s" s="12">
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28669,8 +28795,10 @@
       <c r="S62" s="52"/>
       <c r="T62" s="52"/>
       <c r="U62" s="52"/>
-      <c r="V62" s="53"/>
-      <c r="W62" t="s" s="12">
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" t="s" s="12">
         <v>294</v>
       </c>
     </row>
@@ -28700,8 +28828,10 @@
       <c r="S63" s="52"/>
       <c r="T63" s="52"/>
       <c r="U63" s="52"/>
-      <c r="V63" s="53"/>
-      <c r="W63" t="s" s="12">
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" t="s" s="12">
         <v>295</v>
       </c>
     </row>
@@ -28731,8 +28861,10 @@
       <c r="S64" s="52"/>
       <c r="T64" s="52"/>
       <c r="U64" s="52"/>
-      <c r="V64" s="53"/>
-      <c r="W64" t="s" s="12">
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" t="s" s="12">
         <v>296</v>
       </c>
     </row>
@@ -28762,8 +28894,10 @@
       <c r="S65" s="52"/>
       <c r="T65" s="52"/>
       <c r="U65" s="52"/>
-      <c r="V65" s="53"/>
-      <c r="W65" t="s" s="12">
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" t="s" s="12">
         <v>297</v>
       </c>
     </row>
@@ -28793,8 +28927,10 @@
       <c r="S66" s="52"/>
       <c r="T66" s="52"/>
       <c r="U66" s="52"/>
-      <c r="V66" s="53"/>
-      <c r="W66" t="s" s="12">
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" t="s" s="12">
         <v>298</v>
       </c>
     </row>
@@ -28824,8 +28960,10 @@
       <c r="S67" s="52"/>
       <c r="T67" s="52"/>
       <c r="U67" s="52"/>
-      <c r="V67" s="53"/>
-      <c r="W67" t="s" s="12">
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28855,8 +28993,10 @@
       <c r="S68" s="52"/>
       <c r="T68" s="52"/>
       <c r="U68" s="52"/>
-      <c r="V68" s="53"/>
-      <c r="W68" t="s" s="12">
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28886,8 +29026,10 @@
       <c r="S69" s="52"/>
       <c r="T69" s="52"/>
       <c r="U69" s="52"/>
-      <c r="V69" s="53"/>
-      <c r="W69" t="s" s="12">
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" t="s" s="12">
         <v>299</v>
       </c>
     </row>
@@ -28917,8 +29059,10 @@
       <c r="S70" s="52"/>
       <c r="T70" s="52"/>
       <c r="U70" s="52"/>
-      <c r="V70" s="53"/>
-      <c r="W70" t="s" s="12">
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28948,8 +29092,10 @@
       <c r="S71" s="52"/>
       <c r="T71" s="52"/>
       <c r="U71" s="52"/>
-      <c r="V71" s="53"/>
-      <c r="W71" t="s" s="12">
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="53"/>
+      <c r="Y71" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -28979,8 +29125,10 @@
       <c r="S72" s="52"/>
       <c r="T72" s="52"/>
       <c r="U72" s="52"/>
-      <c r="V72" s="53"/>
-      <c r="W72" t="s" s="12">
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="53"/>
+      <c r="Y72" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29010,8 +29158,10 @@
       <c r="S73" s="52"/>
       <c r="T73" s="52"/>
       <c r="U73" s="52"/>
-      <c r="V73" s="53"/>
-      <c r="W73" t="s" s="12">
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" t="s" s="12">
         <v>300</v>
       </c>
     </row>
@@ -29041,8 +29191,10 @@
       <c r="S74" s="52"/>
       <c r="T74" s="52"/>
       <c r="U74" s="52"/>
-      <c r="V74" s="53"/>
-      <c r="W74" t="s" s="12">
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="53"/>
+      <c r="Y74" t="s" s="12">
         <v>301</v>
       </c>
     </row>
@@ -29072,8 +29224,10 @@
       <c r="S75" s="52"/>
       <c r="T75" s="52"/>
       <c r="U75" s="52"/>
-      <c r="V75" s="53"/>
-      <c r="W75" t="s" s="12">
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
+      <c r="X75" s="53"/>
+      <c r="Y75" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29103,8 +29257,10 @@
       <c r="S76" s="52"/>
       <c r="T76" s="52"/>
       <c r="U76" s="52"/>
-      <c r="V76" s="53"/>
-      <c r="W76" t="s" s="12">
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="53"/>
+      <c r="Y76" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29134,8 +29290,10 @@
       <c r="S77" s="52"/>
       <c r="T77" s="52"/>
       <c r="U77" s="52"/>
-      <c r="V77" s="53"/>
-      <c r="W77" t="s" s="12">
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="53"/>
+      <c r="Y77" t="s" s="12">
         <v>302</v>
       </c>
     </row>
@@ -29165,8 +29323,10 @@
       <c r="S78" s="52"/>
       <c r="T78" s="52"/>
       <c r="U78" s="52"/>
-      <c r="V78" s="53"/>
-      <c r="W78" t="s" s="12">
+      <c r="V78" s="52"/>
+      <c r="W78" s="52"/>
+      <c r="X78" s="53"/>
+      <c r="Y78" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29196,8 +29356,10 @@
       <c r="S79" s="52"/>
       <c r="T79" s="52"/>
       <c r="U79" s="52"/>
-      <c r="V79" s="53"/>
-      <c r="W79" t="s" s="12">
+      <c r="V79" s="52"/>
+      <c r="W79" s="52"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29227,8 +29389,10 @@
       <c r="S80" s="52"/>
       <c r="T80" s="52"/>
       <c r="U80" s="52"/>
-      <c r="V80" s="53"/>
-      <c r="W80" t="s" s="12">
+      <c r="V80" s="52"/>
+      <c r="W80" s="52"/>
+      <c r="X80" s="53"/>
+      <c r="Y80" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29258,8 +29422,10 @@
       <c r="S81" s="52"/>
       <c r="T81" s="52"/>
       <c r="U81" s="52"/>
-      <c r="V81" s="53"/>
-      <c r="W81" t="s" s="12">
+      <c r="V81" s="52"/>
+      <c r="W81" s="52"/>
+      <c r="X81" s="53"/>
+      <c r="Y81" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29289,8 +29455,10 @@
       <c r="S82" s="52"/>
       <c r="T82" s="52"/>
       <c r="U82" s="52"/>
-      <c r="V82" s="53"/>
-      <c r="W82" t="s" s="12">
+      <c r="V82" s="52"/>
+      <c r="W82" s="52"/>
+      <c r="X82" s="53"/>
+      <c r="Y82" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29320,8 +29488,10 @@
       <c r="S83" s="52"/>
       <c r="T83" s="52"/>
       <c r="U83" s="52"/>
-      <c r="V83" s="53"/>
-      <c r="W83" t="s" s="12">
+      <c r="V83" s="52"/>
+      <c r="W83" s="52"/>
+      <c r="X83" s="53"/>
+      <c r="Y83" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29351,8 +29521,10 @@
       <c r="S84" s="52"/>
       <c r="T84" s="52"/>
       <c r="U84" s="52"/>
-      <c r="V84" s="53"/>
-      <c r="W84" t="s" s="12">
+      <c r="V84" s="52"/>
+      <c r="W84" s="52"/>
+      <c r="X84" s="53"/>
+      <c r="Y84" t="s" s="12">
         <v>303</v>
       </c>
     </row>
@@ -29382,8 +29554,10 @@
       <c r="S85" s="52"/>
       <c r="T85" s="52"/>
       <c r="U85" s="52"/>
-      <c r="V85" s="53"/>
-      <c r="W85" t="s" s="12">
+      <c r="V85" s="52"/>
+      <c r="W85" s="52"/>
+      <c r="X85" s="53"/>
+      <c r="Y85" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29413,8 +29587,10 @@
       <c r="S86" s="52"/>
       <c r="T86" s="52"/>
       <c r="U86" s="52"/>
-      <c r="V86" s="53"/>
-      <c r="W86" t="s" s="12">
+      <c r="V86" s="52"/>
+      <c r="W86" s="52"/>
+      <c r="X86" s="53"/>
+      <c r="Y86" t="s" s="12">
         <v>304</v>
       </c>
     </row>
@@ -29444,8 +29620,10 @@
       <c r="S87" s="52"/>
       <c r="T87" s="52"/>
       <c r="U87" s="52"/>
-      <c r="V87" s="53"/>
-      <c r="W87" t="s" s="12">
+      <c r="V87" s="52"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="53"/>
+      <c r="Y87" t="s" s="12">
         <v>305</v>
       </c>
     </row>
@@ -29475,8 +29653,10 @@
       <c r="S88" s="52"/>
       <c r="T88" s="52"/>
       <c r="U88" s="52"/>
-      <c r="V88" s="53"/>
-      <c r="W88" t="s" s="12">
+      <c r="V88" s="52"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="53"/>
+      <c r="Y88" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29506,8 +29686,10 @@
       <c r="S89" s="52"/>
       <c r="T89" s="52"/>
       <c r="U89" s="52"/>
-      <c r="V89" s="53"/>
-      <c r="W89" t="s" s="12">
+      <c r="V89" s="52"/>
+      <c r="W89" s="52"/>
+      <c r="X89" s="53"/>
+      <c r="Y89" t="s" s="12">
         <v>306</v>
       </c>
     </row>
@@ -29537,8 +29719,10 @@
       <c r="S90" s="52"/>
       <c r="T90" s="52"/>
       <c r="U90" s="52"/>
-      <c r="V90" s="53"/>
-      <c r="W90" t="s" s="12">
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="53"/>
+      <c r="Y90" t="s" s="12">
         <v>266</v>
       </c>
     </row>
@@ -29568,8 +29752,10 @@
       <c r="S91" s="56"/>
       <c r="T91" s="56"/>
       <c r="U91" s="56"/>
-      <c r="V91" s="133"/>
-      <c r="W91" t="s" s="12">
+      <c r="V91" s="56"/>
+      <c r="W91" s="56"/>
+      <c r="X91" s="133"/>
+      <c r="Y91" t="s" s="12">
         <v>266</v>
       </c>
     </row>
